--- a/raw_data/English_WS/EnglishWS_Byers.xlsx
+++ b/raw_data/English_WS/EnglishWS_Byers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14673" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14686" uniqueCount="1212">
   <si>
     <t>Kitty sleep</t>
   </si>
@@ -3787,6 +3787,9 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -3881,8 +3884,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3980,7 +3995,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4000,6 +4015,12 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4019,6 +4040,12 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4350,8 +4377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ABN29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="ZK1" workbookViewId="0">
+      <selection activeCell="ZL2" sqref="ZL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -39339,8 +39366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E806"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A679" workbookViewId="0">
+      <selection activeCell="D695" sqref="D695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -50499,10 +50526,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -50568,46 +50595,39 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>972</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>974</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>974</v>
+        <v>972</v>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f>"1"</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>973</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>975</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>975</v>
-      </c>
+        <v>971</v>
+      </c>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
         <v>973</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -50615,10 +50635,10 @@
         <v>973</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -50626,10 +50646,10 @@
         <v>973</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -50637,67 +50657,129 @@
         <v>973</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>972</v>
-      </c>
-      <c r="C15" s="8"/>
+        <v>975</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>978</v>
+        <v>1107</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>978</v>
+        <v>1107</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>979</v>
+        <v>1107</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>980</v>
+        <v>976</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
+        <v>977</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8" t="s">
+        <v>977</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B25" s="8" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>981</v>
       </c>
     </row>

--- a/raw_data/English_WS/EnglishWS_Byers.xlsx
+++ b/raw_data/English_WS/EnglishWS_Byers.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14686" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14674" uniqueCount="1213">
   <si>
     <t>Kitty sleep</t>
   </si>
@@ -3790,6 +3790,9 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>word_ending</t>
   </si>
 </sst>
 </file>
@@ -3884,8 +3887,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3995,7 +4004,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4021,6 +4030,9 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4046,6 +4058,9 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -39366,8 +39381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E806"/>
   <sheetViews>
-    <sheetView topLeftCell="A679" workbookViewId="0">
-      <selection activeCell="D695" sqref="D695"/>
+    <sheetView topLeftCell="A753" workbookViewId="0">
+      <selection activeCell="D769" sqref="D769"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -50526,10 +50541,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -50615,19 +50630,24 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>971</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>973</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
         <v>973</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -50635,151 +50655,103 @@
         <v>973</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>973</v>
+        <v>1107</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>973</v>
+        <v>1107</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>973</v>
+        <v>1107</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>976</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>976</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>1107</v>
+        <v>1212</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>974</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>974</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>1107</v>
+        <v>978</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>975</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>975</v>
-      </c>
+        <v>974</v>
+      </c>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>1107</v>
+        <v>978</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>976</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>976</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>977</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+        <v>979</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>974</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="8" t="s">
-        <v>978</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>975</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="8" t="s">
-        <v>978</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>976</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="B26" s="8" t="s">
         <v>981</v>
       </c>
     </row>

--- a/raw_data/English_WS/EnglishWS_Byers.xlsx
+++ b/raw_data/English_WS/EnglishWS_Byers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -39381,8 +39381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E806"/>
   <sheetViews>
-    <sheetView topLeftCell="A753" workbookViewId="0">
-      <selection activeCell="D769" sqref="D769"/>
+    <sheetView tabSelected="1" topLeftCell="A748" workbookViewId="0">
+      <selection activeCell="D767" sqref="D767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -49478,7 +49478,7 @@
         <v>992</v>
       </c>
       <c r="D724" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -49490,7 +49490,7 @@
         <v>992</v>
       </c>
       <c r="D725" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -49502,7 +49502,7 @@
         <v>992</v>
       </c>
       <c r="D726" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -49514,7 +49514,7 @@
         <v>992</v>
       </c>
       <c r="D727" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -49526,7 +49526,7 @@
         <v>992</v>
       </c>
       <c r="D728" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -49538,7 +49538,7 @@
         <v>992</v>
       </c>
       <c r="D729" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -49550,7 +49550,7 @@
         <v>992</v>
       </c>
       <c r="D730" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -49562,7 +49562,7 @@
         <v>992</v>
       </c>
       <c r="D731" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -49574,7 +49574,7 @@
         <v>992</v>
       </c>
       <c r="D732" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -49586,7 +49586,7 @@
         <v>992</v>
       </c>
       <c r="D733" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -49598,7 +49598,7 @@
         <v>992</v>
       </c>
       <c r="D734" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -49610,7 +49610,7 @@
         <v>992</v>
       </c>
       <c r="D735" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -49622,7 +49622,7 @@
         <v>992</v>
       </c>
       <c r="D736" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="737" spans="1:5">
@@ -49634,7 +49634,7 @@
         <v>992</v>
       </c>
       <c r="D737" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="738" spans="1:5">
@@ -49646,7 +49646,7 @@
         <v>992</v>
       </c>
       <c r="D738" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -49658,7 +49658,7 @@
         <v>992</v>
       </c>
       <c r="D739" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="740" spans="1:5">
@@ -49670,7 +49670,7 @@
         <v>992</v>
       </c>
       <c r="D740" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="741" spans="1:5">
@@ -49682,7 +49682,7 @@
         <v>992</v>
       </c>
       <c r="D741" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -49694,7 +49694,7 @@
         <v>992</v>
       </c>
       <c r="D742" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -49706,7 +49706,7 @@
         <v>992</v>
       </c>
       <c r="D743" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="744" spans="1:5">
@@ -49718,7 +49718,7 @@
         <v>992</v>
       </c>
       <c r="D744" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E744" s="18"/>
     </row>
@@ -49731,7 +49731,7 @@
         <v>992</v>
       </c>
       <c r="D745" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E745" s="18"/>
     </row>
@@ -49744,7 +49744,7 @@
         <v>992</v>
       </c>
       <c r="D746" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E746" s="18"/>
     </row>
@@ -49757,7 +49757,7 @@
         <v>992</v>
       </c>
       <c r="D747" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E747" s="18"/>
     </row>
@@ -49770,7 +49770,7 @@
         <v>992</v>
       </c>
       <c r="D748" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E748" s="18"/>
     </row>
@@ -49783,7 +49783,7 @@
         <v>992</v>
       </c>
       <c r="D749" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E749" s="18"/>
     </row>
@@ -49796,7 +49796,7 @@
         <v>992</v>
       </c>
       <c r="D750" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E750" s="18"/>
     </row>
@@ -49809,7 +49809,7 @@
         <v>992</v>
       </c>
       <c r="D751" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E751" s="18"/>
     </row>
@@ -49822,7 +49822,7 @@
         <v>992</v>
       </c>
       <c r="D752" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E752" s="18"/>
     </row>
@@ -49835,7 +49835,7 @@
         <v>992</v>
       </c>
       <c r="D753" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E753" s="18"/>
     </row>
@@ -49848,7 +49848,7 @@
         <v>992</v>
       </c>
       <c r="D754" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E754" s="18"/>
     </row>
@@ -49861,7 +49861,7 @@
         <v>992</v>
       </c>
       <c r="D755" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E755" s="18"/>
     </row>
@@ -49874,7 +49874,7 @@
         <v>992</v>
       </c>
       <c r="D756" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E756" s="18"/>
     </row>
@@ -49887,7 +49887,7 @@
         <v>992</v>
       </c>
       <c r="D757" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E757" s="18"/>
     </row>
@@ -49900,7 +49900,7 @@
         <v>992</v>
       </c>
       <c r="D758" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E758" s="18"/>
     </row>
@@ -49913,7 +49913,7 @@
         <v>992</v>
       </c>
       <c r="D759" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E759" s="18"/>
     </row>
@@ -49926,7 +49926,7 @@
         <v>992</v>
       </c>
       <c r="D760" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E760" s="18"/>
     </row>
@@ -49939,7 +49939,7 @@
         <v>992</v>
       </c>
       <c r="D761" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E761" s="18"/>
     </row>
@@ -49952,7 +49952,7 @@
         <v>992</v>
       </c>
       <c r="D762" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E762" s="18"/>
     </row>
@@ -49965,7 +49965,7 @@
         <v>992</v>
       </c>
       <c r="D763" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E763" s="18"/>
     </row>
@@ -49978,7 +49978,7 @@
         <v>992</v>
       </c>
       <c r="D764" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E764" s="18"/>
     </row>
@@ -49991,7 +49991,7 @@
         <v>992</v>
       </c>
       <c r="D765" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E765" s="18"/>
     </row>
@@ -50004,7 +50004,7 @@
         <v>992</v>
       </c>
       <c r="D766" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E766" s="18"/>
     </row>
@@ -50017,7 +50017,7 @@
         <v>992</v>
       </c>
       <c r="D767" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E767" s="18"/>
     </row>
@@ -50030,7 +50030,7 @@
         <v>992</v>
       </c>
       <c r="D768" s="14" t="s">
-        <v>977</v>
+        <v>1212</v>
       </c>
       <c r="E768" s="18"/>
     </row>
@@ -50543,7 +50543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/raw_data/English_WS/EnglishWS_Byers.xlsx
+++ b/raw_data/English_WS/EnglishWS_Byers.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="field_mapping" sheetId="2" r:id="rId2"/>
-    <sheet name="value_mapping" sheetId="3" r:id="rId3"/>
+    <sheet name="fields" sheetId="2" r:id="rId2"/>
+    <sheet name="values" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -6465,7 +6465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ABN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -8720,7 +8720,7 @@
         <v>41307</v>
       </c>
       <c r="D2" s="4">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D28" si="0">C2-B2</f>
         <v>785</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -10787,7 +10787,7 @@
         <v>41137</v>
       </c>
       <c r="D3" s="4">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>742</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -12143,7 +12143,7 @@
         <v>41335</v>
       </c>
       <c r="D4" s="4">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>813</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -14072,7 +14072,7 @@
         <v>41610</v>
       </c>
       <c r="D5" s="4">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>829</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -15422,7 +15422,7 @@
         <v>41392</v>
       </c>
       <c r="D6" s="4">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>611</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -15857,7 +15857,7 @@
         <v>41727</v>
       </c>
       <c r="D7" s="4">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>751</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -17336,7 +17336,7 @@
         <v>41739</v>
       </c>
       <c r="D8" s="4">
-        <f>C8-B8</f>
+        <f t="shared" si="0"/>
         <v>750</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -18299,7 +18299,7 @@
         <v>41741</v>
       </c>
       <c r="D9" s="4">
-        <f>C9-B9</f>
+        <f t="shared" si="0"/>
         <v>765</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -18320,7 +18320,7 @@
         <v>41757</v>
       </c>
       <c r="D10" s="4">
-        <f>C10-B10</f>
+        <f t="shared" si="0"/>
         <v>785</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -18836,7 +18836,7 @@
         <v>41137</v>
       </c>
       <c r="D11" s="4">
-        <f>C11-B11</f>
+        <f t="shared" si="0"/>
         <v>742</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -20186,7 +20186,7 @@
         <v>41260</v>
       </c>
       <c r="D12" s="4">
-        <f>C12-B12</f>
+        <f t="shared" si="0"/>
         <v>744</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -21650,7 +21650,7 @@
         <v>41305</v>
       </c>
       <c r="D13" s="4">
-        <f>C13-B13</f>
+        <f t="shared" si="0"/>
         <v>735</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -22760,7 +22760,7 @@
         <v>41308</v>
       </c>
       <c r="D14" s="4">
-        <f>C14-B14</f>
+        <f t="shared" si="0"/>
         <v>774</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -23483,7 +23483,7 @@
         <v>41328</v>
       </c>
       <c r="D15" s="4">
-        <f>C15-B15</f>
+        <f t="shared" si="0"/>
         <v>767</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -25682,7 +25682,7 @@
         <v>41332</v>
       </c>
       <c r="D16" s="4">
-        <f>C16-B16</f>
+        <f t="shared" si="0"/>
         <v>762</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -27530,7 +27530,7 @@
         <v>41672</v>
       </c>
       <c r="D17" s="4">
-        <f>C17-B17</f>
+        <f t="shared" si="0"/>
         <v>753</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -28505,7 +28505,7 @@
         <v>41932</v>
       </c>
       <c r="D18" s="4">
-        <f>C18-B18</f>
+        <f t="shared" si="0"/>
         <v>761</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -29432,7 +29432,7 @@
         <v>41720</v>
       </c>
       <c r="D19" s="4">
-        <f>C19-B19</f>
+        <f t="shared" si="0"/>
         <v>751</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -30884,7 +30884,7 @@
         <v>41720</v>
       </c>
       <c r="D20" s="4">
-        <f>C20-B20</f>
+        <f t="shared" si="0"/>
         <v>731</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -31478,7 +31478,7 @@
         <v>41727</v>
       </c>
       <c r="D21" s="4">
-        <f>C21-B21</f>
+        <f t="shared" si="0"/>
         <v>751</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -32951,7 +32951,7 @@
         <v>41757</v>
       </c>
       <c r="D22" s="4">
-        <f>C22-B22</f>
+        <f t="shared" si="0"/>
         <v>785</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -33470,7 +33470,7 @@
         <v>41738</v>
       </c>
       <c r="D23" s="4">
-        <f>C23-B23</f>
+        <f t="shared" si="0"/>
         <v>764</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -33491,7 +33491,7 @@
         <v>41739</v>
       </c>
       <c r="D24" s="4">
-        <f>C24-B24</f>
+        <f t="shared" si="0"/>
         <v>750</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -34472,7 +34472,7 @@
         <v>41298</v>
       </c>
       <c r="D25" s="4">
-        <f>C25-B25</f>
+        <f t="shared" si="0"/>
         <v>761</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -36152,7 +36152,7 @@
         <v>41300</v>
       </c>
       <c r="D26" s="4">
-        <f>C26-B26</f>
+        <f t="shared" si="0"/>
         <v>741</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -37817,7 +37817,7 @@
         <v>41960</v>
       </c>
       <c r="D27" s="4">
-        <f>C27-B27</f>
+        <f t="shared" si="0"/>
         <v>738</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -39701,7 +39701,7 @@
         <v>41962</v>
       </c>
       <c r="D28" s="4">
-        <f>C28-B28</f>
+        <f t="shared" si="0"/>
         <v>606</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -53266,7 +53266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
